--- a/nr-rm-mesures-frcore/ig/StructureDefinition-mesures-observation-steps-by-day.xlsx
+++ b/nr-rm-mesures-frcore/ig/StructureDefinition-mesures-observation-steps-by-day.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T08:11:30+00:00</t>
+    <t>2024-07-30T08:17:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -663,11 +663,10 @@
 </t>
   </si>
   <si>
-    <t>Motif de la mesure</t>
-  </si>
-  <si>
-    <t>Motif de la mesure
-Texte libre (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…)</t>
+    <t>Motif de la mesure en texte libre (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…)</t>
+  </si>
+  <si>
+    <t>Extension du Motif de la mesure, exprimé en texte libre  (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…).</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
